--- a/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1RZ6CYWERX_巫师3狂猎最高难度保姆级攻略地毯式全收集全成就流程解说全遗物武器110件全衣服套装血与酒石之心次世代白金全成就_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV1RZ6CYWERX_巫师3狂猎最高难度保姆级攻略地毯式全收集全成就流程解说全遗物武器110件全衣服套装血与酒石之心次世代白金全成就_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="179">
   <si>
     <t>bvid</t>
   </si>
@@ -46,630 +46,527 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1RZ6CYWERX</t>
   </si>
   <si>
-    <t>486752975</t>
-  </si>
-  <si>
     <t>墨韵-潇客</t>
   </si>
   <si>
+    <t>loogen_</t>
+  </si>
+  <si>
+    <t>ventre_t</t>
+  </si>
+  <si>
+    <t>HPHPPP</t>
+  </si>
+  <si>
+    <t>稳如朽木</t>
+  </si>
+  <si>
+    <t>皇晴李</t>
+  </si>
+  <si>
+    <t>南风未挽故人灬</t>
+  </si>
+  <si>
+    <t>笑抽筋了</t>
+  </si>
+  <si>
+    <t>爱吃薯片的小笨猫</t>
+  </si>
+  <si>
+    <t>人称小迷糊-</t>
+  </si>
+  <si>
+    <t>于不_</t>
+  </si>
+  <si>
+    <t>你太窝黑</t>
+  </si>
+  <si>
+    <t>骚包阿宇</t>
+  </si>
+  <si>
+    <t>最后的高尔夫-</t>
+  </si>
+  <si>
+    <t>Mori亚蒂</t>
+  </si>
+  <si>
+    <t>淘洞男孩</t>
+  </si>
+  <si>
+    <t>谩骂加拉黑是常规操作</t>
+  </si>
+  <si>
+    <t>还得是清扬</t>
+  </si>
+  <si>
+    <t>平凡的酸角</t>
+  </si>
+  <si>
+    <t>秋日残荷凭栏观</t>
+  </si>
+  <si>
+    <t>罗马绿茶</t>
+  </si>
+  <si>
+    <t>Azra4l</t>
+  </si>
+  <si>
+    <t>暂时没想好名字1</t>
+  </si>
+  <si>
+    <t>烒火333</t>
+  </si>
+  <si>
+    <t>最后的轻语97</t>
+  </si>
+  <si>
+    <t>SagittariusWorst</t>
+  </si>
+  <si>
+    <t>79814524572_bili</t>
+  </si>
+  <si>
+    <t>WizzenH</t>
+  </si>
+  <si>
+    <t>夜空依然棒棒哒</t>
+  </si>
+  <si>
+    <t>-Averager-</t>
+  </si>
+  <si>
+    <t>Rosedelune</t>
+  </si>
+  <si>
+    <t>ク大老师</t>
+  </si>
+  <si>
+    <t>bili_46436241973</t>
+  </si>
+  <si>
+    <t>领域外的Ytc</t>
+  </si>
+  <si>
+    <t>小羊在火山吃冰淇淋</t>
+  </si>
+  <si>
+    <t>清枫云舒</t>
+  </si>
+  <si>
+    <t>安魂弥撒kria</t>
+  </si>
+  <si>
+    <t>bili_11243538091</t>
+  </si>
+  <si>
+    <t>赛文君123</t>
+  </si>
+  <si>
+    <t>ace小朋友</t>
+  </si>
+  <si>
+    <t>博文2020</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>催更，打完了</t>
   </si>
   <si>
+    <t>不是更石之心吗？</t>
+  </si>
+  <si>
+    <t>up主 猎魔人的钢剑和银剑是在哪里买的？我看写的是只能购买，但诺维格瑞的护甲匠那我没找到这两把剑</t>
+  </si>
+  <si>
+    <t>为啥我按着up一起走的 技能点比up主少一点 我记得魔力之所我都拿了啊 真奇怪</t>
+  </si>
+  <si>
+    <t>哥，威伦船边的那个战略品怎么拿呀，拿了也没灰掉</t>
+  </si>
+  <si>
+    <t>兄弟们，我在16期的那个通过的代价那边始终这个任务就刷不出来，有大佬知道什么原因吗？或者怎么解决？</t>
+  </si>
+  <si>
+    <t>我问个问题啊 我的湖女之剑是99级拿的 湖女之剑上面显示是98级  然后我去刷怪刷伤害加成  为什么我的湖女之剑伤害加成最高就20啊 我确定我已经把暴击和层数刷出来了，刷了几分钟也不升了，伤害加成上限就是20 我看别人都能几百啊，这是怎么回事，是不起因为级数满了的原因？</t>
+  </si>
+  <si>
+    <t>如果跟up全部玩一遍，大概多少游戏时长啊[哦呼]</t>
+  </si>
+  <si>
+    <t>这个牌绝了</t>
+  </si>
+  <si>
+    <t>什么时候更新dlc啊！！</t>
+  </si>
+  <si>
+    <t>大佬们，二周目DLC都打完了再开还是主线结束了就开啊</t>
+  </si>
+  <si>
+    <t>哪种怪物突变诱导物，可以最多可以获得多少个啊？作煎药需要用一个，之后还可以再获得吗？</t>
+  </si>
+  <si>
+    <t>威伦秃树山右上角的问号前期进不去吗</t>
+  </si>
+  <si>
+    <t>upup,流程里包括地图上的各种宝箱吗</t>
+  </si>
+  <si>
+    <t>兄弟们问个问题，我开局选的想流点血难度，中途又换成了死而无憾，那通关的时候能不能拿到死而无憾通关的奖杯啊？</t>
+  </si>
+  <si>
+    <t>我完了，今天跟跑完装备图纸寻宝任务，所有的铸剑师和护甲师里高阶装备全都消失不见了，有什么解决办法吗</t>
+  </si>
+  <si>
+    <t>up为啥背包无负重上限</t>
+  </si>
+  <si>
+    <t>真牛啊这大神！我刚下载了准备玩玩这十年前的游戏了[笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>跟着你走支线得多存档，一不留神就被你忽悠了[笑哭]</t>
+  </si>
+  <si>
+    <t>今天白金了，视频做的非常好。</t>
+  </si>
+  <si>
+    <t>我史凯利格？全清了，53成就了，剩下几个太难的和dlc几个成就没打，还没完dlc，在等🆙[大哭][大哭][大哭]</t>
+  </si>
+  <si>
+    <t>今年还会更新dlc吗up主sama[星星眼]</t>
+  </si>
+  <si>
+    <t>我没有采石场的那个随机事件，把那个食尸鬼打了影响后续吗？</t>
+  </si>
+  <si>
+    <t>大佬提个问题啊，我把血腥男爵的那个主线做了，血腥男爵没死去治病了。我还没有跟他打昆特牌。现在该去哪里找他？</t>
+  </si>
+  <si>
+    <t>我跟着你做到第12集了，今天往这边走的时候发现一个烧尸体的任务后续，他说他感染了，让我们帮忙杀了他</t>
+  </si>
+  <si>
+    <t>看了天国，巫师猛更了好几期，天国也更了好几期，不知道是不是该巫师了哈哈哈，腹泻式更新</t>
+  </si>
+  <si>
+    <t>我史铠利格“?”都要清完了，催更催更🆙[呲牙][呲牙][呲牙]</t>
+  </si>
+  <si>
+    <t>no！！！军需师那里已经不能刷银粉了</t>
+  </si>
+  <si>
+    <t>大佬们 想请教一下 过完恶魔之窟的任务后由于猫眼的探索BUG导致杰洛特现在无法正常跑动 重启游戏以及重新开机仍然无法修复 是只有重新开档才能解决嘛</t>
+  </si>
+  <si>
+    <t>全成就，后面dlc不用跟着注几个特别的任务就可以[辣眼睛]，更新太慢了</t>
+  </si>
+  <si>
+    <t>大佬 百果园野兽 向猎人打听发现尸体地点变红了有影响吗</t>
+  </si>
+  <si>
+    <t>咨询一下，up主推荐翼手龙煎药，这玩意不是被打一下就都白费了，比沼泽巫婆还难保持</t>
+  </si>
+  <si>
+    <t>蹲dlc</t>
+  </si>
+  <si>
+    <t>全副套牌已经失败了。那本书就拿不到了吧[大哭]</t>
+  </si>
+  <si>
+    <t>水晶乌头刚开始就忘了拿，影响全成就吗</t>
+  </si>
+  <si>
+    <t>upup，你的视频2不能开字幕</t>
+  </si>
+  <si>
+    <t>通关，多谢up，速速更新[呲牙][呲牙][呲牙][呲牙]</t>
+  </si>
+  <si>
+    <t>为什么我见皇帝，就是第三集他问话的内容是叶奈法的护卫啊</t>
+  </si>
+  <si>
+    <t>中配和英配对话不一样唉</t>
+  </si>
+  <si>
+    <t>卧槽，又更一集，爽歪歪，待会打的天荒地老[呲牙][呲牙][呲牙][呲牙]</t>
+  </si>
+  <si>
+    <t>太赞了 支持支持</t>
+  </si>
+  <si>
+    <t>这业报我刷了一小时都没出[辣眼睛]真恶心</t>
+  </si>
+  <si>
+    <t>UP主怎么做到每次杀人都肢解？</t>
+  </si>
+  <si>
+    <t>啊，刚刚打完，有更新55集了，太爽了吧，幸福来的太突然，刚刚退出游戏[笑哭][笑哭][笑哭]</t>
+  </si>
+  <si>
+    <t>感谢up的视频，让搁置了5年巫师三的我全成就了，三连+关注了</t>
+  </si>
+  <si>
+    <t>催更，打了一下午，快打完了[呲牙]</t>
+  </si>
+  <si>
+    <t>没玩2就玩3了，是不是那个任务做不了了</t>
+  </si>
+  <si>
+    <t>前期为什么要买那个毒蛇剑啊？有其他伤害更高的剑。</t>
+  </si>
+  <si>
+    <t>为啥我手柄X攻击显示无法这样做[笑哭]</t>
+  </si>
+  <si>
+    <t>终于更新了，等好久了[大哭][大哭][大哭]</t>
+  </si>
+  <si>
+    <t>左图是黑珍珠的任务地点，右图是前面一个任务的后续，大家去了就知道了(不剧透了)是一段小剧情。然后up是不是还没做凯拉的支线以及黑珍珠任务(可能是up下期有自己的想法)  还有是狼派第四那个任务，因为我之前都拿完了装备，然后买了地图再阅读是没有这个任务的，不知道大家是什么样的。</t>
+  </si>
+  <si>
+    <t>咋还没更新了，打结局啊[大哭]</t>
+  </si>
+  <si>
+    <t>4500干一炮，确实太贵了</t>
+  </si>
+  <si>
+    <t>前期凯拉的支线都做完了，找不到凯拉了，还有哪里能买到基础版诅咒之油？</t>
+  </si>
+  <si>
+    <t>问一下，为什么up可以在炼金直接购买缺少的材料？我这边不行，没有物品右上角内个黄色的标志</t>
+  </si>
+  <si>
+    <t>新手入坑，白果园也过不了[笑哭]</t>
+  </si>
+  <si>
+    <t>催更，催更，嘿嘿，今晚1点，春促开始，这次必须把季票补了，🆙速速通关本体啊，打dlc啦[呲牙][呲牙][呲牙]</t>
+  </si>
+  <si>
+    <t>更新49踢我</t>
+  </si>
+  <si>
+    <t>up主，一直看你视频玩，挺详细的，有个问题你那个地图怎么会有蓝色叹号，我的没有，是啥mod，名字叫什么？</t>
+  </si>
+  <si>
+    <t>为啥我岩石巨魔刷了十次了，死活不出突变物？</t>
+  </si>
+  <si>
     <t>2025-03-27 02:43:42</t>
   </si>
   <si>
-    <t>448096283</t>
-  </si>
-  <si>
-    <t>loogen_</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>不是更石之心吗？</t>
-  </si>
-  <si>
     <t>2025-03-26 23:17:12</t>
   </si>
   <si>
-    <t>40049866</t>
-  </si>
-  <si>
-    <t>ventre_t</t>
-  </si>
-  <si>
-    <t>up主 猎魔人的钢剑和银剑是在哪里买的？我看写的是只能购买，但诺维格瑞的护甲匠那我没找到这两把剑</t>
-  </si>
-  <si>
     <t>2025-03-26 22:52:24</t>
   </si>
   <si>
-    <t>298582569</t>
-  </si>
-  <si>
-    <t>HPHPPP</t>
-  </si>
-  <si>
-    <t>为啥我按着up一起走的 技能点比up主少一点 我记得魔力之所我都拿了啊 真奇怪</t>
-  </si>
-  <si>
     <t>2025-03-26 02:36:44</t>
   </si>
   <si>
-    <t>14991900</t>
-  </si>
-  <si>
-    <t>稳如朽木</t>
-  </si>
-  <si>
-    <t>哥，威伦船边的那个战略品怎么拿呀，拿了也没灰掉</t>
-  </si>
-  <si>
     <t>2025-03-25 21:00:25</t>
   </si>
   <si>
-    <t>77568913</t>
-  </si>
-  <si>
-    <t>皇晴李</t>
-  </si>
-  <si>
-    <t>兄弟们，我在16期的那个通过的代价那边始终这个任务就刷不出来，有大佬知道什么原因吗？或者怎么解决？</t>
-  </si>
-  <si>
     <t>2025-03-25 13:20:21</t>
   </si>
   <si>
-    <t>650364185</t>
-  </si>
-  <si>
-    <t>南风未挽故人灬</t>
-  </si>
-  <si>
-    <t>我问个问题啊 我的湖女之剑是99级拿的 湖女之剑上面显示是98级  然后我去刷怪刷伤害加成  为什么我的湖女之剑伤害加成最高就20啊 我确定我已经把暴击和层数刷出来了，刷了几分钟也不升了，伤害加成上限就是20 我看别人都能几百啊，这是怎么回事，是不起因为级数满了的原因？</t>
-  </si>
-  <si>
     <t>2025-03-25 12:34:30</t>
   </si>
   <si>
-    <t>631524948</t>
-  </si>
-  <si>
-    <t>笑抽筋了</t>
-  </si>
-  <si>
-    <t>如果跟up全部玩一遍，大概多少游戏时长啊[哦呼]</t>
-  </si>
-  <si>
     <t>2025-03-24 22:53:36</t>
   </si>
   <si>
-    <t>41049675</t>
-  </si>
-  <si>
-    <t>爱吃薯片的小笨猫</t>
-  </si>
-  <si>
-    <t>这个牌绝了</t>
-  </si>
-  <si>
     <t>2025-03-24 15:34:37</t>
   </si>
   <si>
-    <t>383034760</t>
-  </si>
-  <si>
-    <t>人称小迷糊-</t>
-  </si>
-  <si>
-    <t>什么时候更新dlc啊！！</t>
-  </si>
-  <si>
     <t>2025-03-24 03:31:09</t>
   </si>
   <si>
-    <t>36902532</t>
-  </si>
-  <si>
-    <t>于不_</t>
-  </si>
-  <si>
-    <t>大佬们，二周目DLC都打完了再开还是主线结束了就开啊</t>
-  </si>
-  <si>
     <t>2025-03-24 00:52:01</t>
   </si>
   <si>
-    <t>哪种怪物突变诱导物，可以最多可以获得多少个啊？作煎药需要用一个，之后还可以再获得吗？</t>
-  </si>
-  <si>
     <t>2025-03-23 23:26:13</t>
   </si>
   <si>
-    <t>353694122</t>
-  </si>
-  <si>
-    <t>你太窝黑</t>
-  </si>
-  <si>
-    <t>威伦秃树山右上角的问号前期进不去吗</t>
-  </si>
-  <si>
     <t>2025-03-23 13:41:04</t>
   </si>
   <si>
-    <t>85584494</t>
-  </si>
-  <si>
-    <t>骚包阿宇</t>
-  </si>
-  <si>
-    <t>upup,流程里包括地图上的各种宝箱吗</t>
-  </si>
-  <si>
     <t>2025-03-23 11:11:14</t>
   </si>
   <si>
-    <t>11397768</t>
-  </si>
-  <si>
-    <t>最后的高尔夫-</t>
-  </si>
-  <si>
-    <t>兄弟们问个问题，我开局选的想流点血难度，中途又换成了死而无憾，那通关的时候能不能拿到死而无憾通关的奖杯啊？</t>
-  </si>
-  <si>
     <t>2025-03-22 22:57:17</t>
   </si>
   <si>
-    <t>12601915</t>
-  </si>
-  <si>
-    <t>Mori亚蒂</t>
-  </si>
-  <si>
-    <t>我完了，今天跟跑完装备图纸寻宝任务，所有的铸剑师和护甲师里高阶装备全都消失不见了，有什么解决办法吗</t>
-  </si>
-  <si>
     <t>2025-03-22 19:42:02</t>
   </si>
   <si>
-    <t>215531898</t>
-  </si>
-  <si>
-    <t>淘洞男孩</t>
-  </si>
-  <si>
-    <t>up为啥背包无负重上限</t>
-  </si>
-  <si>
     <t>2025-03-22 13:47:46</t>
   </si>
   <si>
-    <t>199929846</t>
-  </si>
-  <si>
-    <t>谩骂加拉黑是常规操作</t>
-  </si>
-  <si>
-    <t>真牛啊这大神！我刚下载了准备玩玩这十年前的游戏了[笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-21 20:30:51</t>
   </si>
   <si>
-    <t>1237573780</t>
-  </si>
-  <si>
-    <t>还得是清扬</t>
-  </si>
-  <si>
-    <t>跟着你走支线得多存档，一不留神就被你忽悠了[笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-21 18:31:47</t>
   </si>
   <si>
-    <t>161821877</t>
-  </si>
-  <si>
-    <t>平凡的酸角</t>
-  </si>
-  <si>
-    <t>今天白金了，视频做的非常好。</t>
-  </si>
-  <si>
     <t>2025-03-21 14:04:57</t>
   </si>
   <si>
-    <t>我史凯利格？全清了，53成就了，剩下几个太难的和dlc几个成就没打，还没完dlc，在等🆙[大哭][大哭][大哭]</t>
-  </si>
-  <si>
     <t>2025-03-20 23:12:07</t>
   </si>
   <si>
-    <t>今年还会更新dlc吗up主sama[星星眼]</t>
-  </si>
-  <si>
     <t>2025-03-20 22:47:04</t>
   </si>
   <si>
-    <t>522390711</t>
-  </si>
-  <si>
-    <t>秋日残荷凭栏观</t>
-  </si>
-  <si>
-    <t>我没有采石场的那个随机事件，把那个食尸鬼打了影响后续吗？</t>
-  </si>
-  <si>
     <t>2025-03-20 20:37:51</t>
   </si>
   <si>
-    <t>大佬提个问题啊，我把血腥男爵的那个主线做了，血腥男爵没死去治病了。我还没有跟他打昆特牌。现在该去哪里找他？</t>
-  </si>
-  <si>
     <t>2025-03-20 14:54:07</t>
   </si>
   <si>
-    <t>38239663</t>
-  </si>
-  <si>
-    <t>罗马绿茶</t>
-  </si>
-  <si>
-    <t>我跟着你做到第12集了，今天往这边走的时候发现一个烧尸体的任务后续，他说他感染了，让我们帮忙杀了他</t>
-  </si>
-  <si>
     <t>2025-03-20 01:29:54</t>
   </si>
   <si>
-    <t>447414451</t>
-  </si>
-  <si>
-    <t>Azra4l</t>
-  </si>
-  <si>
-    <t>看了天国，巫师猛更了好几期，天国也更了好几期，不知道是不是该巫师了哈哈哈，腹泻式更新</t>
-  </si>
-  <si>
     <t>2025-03-19 22:45:57</t>
   </si>
   <si>
-    <t>我史铠利格“?”都要清完了，催更催更🆙[呲牙][呲牙][呲牙]</t>
-  </si>
-  <si>
     <t>2025-03-19 22:28:33</t>
   </si>
   <si>
-    <t>502268123</t>
-  </si>
-  <si>
-    <t>暂时没想好名字1</t>
-  </si>
-  <si>
-    <t>no！！！军需师那里已经不能刷银粉了</t>
-  </si>
-  <si>
     <t>2025-03-19 21:51:32</t>
   </si>
   <si>
-    <t>119771812</t>
-  </si>
-  <si>
-    <t>烒火333</t>
-  </si>
-  <si>
-    <t>大佬们 想请教一下 过完恶魔之窟的任务后由于猫眼的探索BUG导致杰洛特现在无法正常跑动 重启游戏以及重新开机仍然无法修复 是只有重新开档才能解决嘛</t>
-  </si>
-  <si>
     <t>2025-03-19 14:04:27</t>
   </si>
   <si>
-    <t>15264483</t>
-  </si>
-  <si>
-    <t>最后的轻语97</t>
-  </si>
-  <si>
-    <t>全成就，后面dlc不用跟着注几个特别的任务就可以[辣眼睛]，更新太慢了</t>
-  </si>
-  <si>
     <t>2025-03-19 12:55:36</t>
   </si>
   <si>
-    <t>595860904</t>
-  </si>
-  <si>
-    <t>SagittariusWorst</t>
-  </si>
-  <si>
-    <t>大佬 百果园野兽 向猎人打听发现尸体地点变红了有影响吗</t>
-  </si>
-  <si>
     <t>2025-03-19 08:42:23</t>
   </si>
   <si>
-    <t>431292865</t>
-  </si>
-  <si>
-    <t>79814524572_bili</t>
-  </si>
-  <si>
-    <t>咨询一下，up主推荐翼手龙煎药，这玩意不是被打一下就都白费了，比沼泽巫婆还难保持</t>
-  </si>
-  <si>
     <t>2025-03-18 20:17:37</t>
   </si>
   <si>
-    <t>蹲dlc</t>
-  </si>
-  <si>
     <t>2025-03-18 20:16:50</t>
   </si>
   <si>
-    <t>400982389</t>
-  </si>
-  <si>
-    <t>WizzenH</t>
-  </si>
-  <si>
-    <t>全副套牌已经失败了。那本书就拿不到了吧[大哭]</t>
-  </si>
-  <si>
     <t>2025-03-18 11:54:14</t>
   </si>
   <si>
-    <t>水晶乌头刚开始就忘了拿，影响全成就吗</t>
-  </si>
-  <si>
     <t>2025-03-18 11:06:34</t>
   </si>
   <si>
-    <t>1158612897</t>
-  </si>
-  <si>
-    <t>夜空依然棒棒哒</t>
-  </si>
-  <si>
-    <t>upup，你的视频2不能开字幕</t>
-  </si>
-  <si>
     <t>2025-03-18 09:25:55</t>
   </si>
   <si>
-    <t>通关，多谢up，速速更新[呲牙][呲牙][呲牙][呲牙]</t>
-  </si>
-  <si>
     <t>2025-03-17 23:48:49</t>
   </si>
   <si>
-    <t>628346339</t>
-  </si>
-  <si>
-    <t>-Averager-</t>
-  </si>
-  <si>
-    <t>为什么我见皇帝，就是第三集他问话的内容是叶奈法的护卫啊</t>
-  </si>
-  <si>
     <t>2025-03-17 22:38:28</t>
   </si>
   <si>
-    <t>中配和英配对话不一样唉</t>
-  </si>
-  <si>
     <t>2025-03-17 22:24:54</t>
   </si>
   <si>
-    <t>卧槽，又更一集，爽歪歪，待会打的天荒地老[呲牙][呲牙][呲牙][呲牙]</t>
-  </si>
-  <si>
     <t>2025-03-17 10:08:54</t>
   </si>
   <si>
-    <t>3174113</t>
-  </si>
-  <si>
-    <t>Rosedelune</t>
-  </si>
-  <si>
-    <t>太赞了 支持支持</t>
-  </si>
-  <si>
     <t>2025-03-17 09:14:24</t>
   </si>
   <si>
-    <t>34473855</t>
-  </si>
-  <si>
-    <t>ク大老师</t>
-  </si>
-  <si>
-    <t>这业报我刷了一小时都没出[辣眼睛]真恶心</t>
-  </si>
-  <si>
     <t>2025-03-17 00:47:38</t>
   </si>
   <si>
-    <t>1617119687</t>
-  </si>
-  <si>
-    <t>bili_46436241973</t>
-  </si>
-  <si>
-    <t>UP主怎么做到每次杀人都肢解？</t>
-  </si>
-  <si>
     <t>2025-03-16 23:29:07</t>
   </si>
   <si>
-    <t>啊，刚刚打完，有更新55集了，太爽了吧，幸福来的太突然，刚刚退出游戏[笑哭][笑哭][笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-16 22:16:33</t>
   </si>
   <si>
-    <t>35156937</t>
-  </si>
-  <si>
-    <t>领域外的Ytc</t>
-  </si>
-  <si>
-    <t>感谢up的视频，让搁置了5年巫师三的我全成就了，三连+关注了</t>
-  </si>
-  <si>
     <t>2025-03-16 19:04:28</t>
   </si>
   <si>
-    <t>催更，打了一下午，快打完了[呲牙]</t>
-  </si>
-  <si>
     <t>2025-03-16 18:51:18</t>
   </si>
   <si>
-    <t>1653831614</t>
-  </si>
-  <si>
-    <t>小羊在火山吃冰淇淋</t>
-  </si>
-  <si>
-    <t>没玩2就玩3了，是不是那个任务做不了了</t>
-  </si>
-  <si>
     <t>2025-03-16 18:31:45</t>
   </si>
   <si>
-    <t>3537120239028232</t>
-  </si>
-  <si>
-    <t>清枫云舒</t>
-  </si>
-  <si>
-    <t>前期为什么要买那个毒蛇剑啊？有其他伤害更高的剑。</t>
-  </si>
-  <si>
     <t>2025-03-16 17:00:36</t>
   </si>
   <si>
-    <t>23740690</t>
-  </si>
-  <si>
-    <t>安魂弥撒kria</t>
-  </si>
-  <si>
-    <t>为啥我手柄X攻击显示无法这样做[笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-16 02:10:03</t>
   </si>
   <si>
-    <t>终于更新了，等好久了[大哭][大哭][大哭]</t>
-  </si>
-  <si>
     <t>2025-03-15 19:06:50</t>
   </si>
   <si>
-    <t>左图是黑珍珠的任务地点，右图是前面一个任务的后续，大家去了就知道了(不剧透了)是一段小剧情。然后up是不是还没做凯拉的支线以及黑珍珠任务(可能是up下期有自己的想法)  还有是狼派第四那个任务，因为我之前都拿完了装备，然后买了地图再阅读是没有这个任务的，不知道大家是什么样的。</t>
-  </si>
-  <si>
     <t>2025-03-15 16:34:38</t>
   </si>
   <si>
-    <t>咋还没更新了，打结局啊[大哭]</t>
-  </si>
-  <si>
     <t>2025-03-15 10:37:44</t>
   </si>
   <si>
-    <t>4500干一炮，确实太贵了</t>
-  </si>
-  <si>
     <t>2025-03-14 00:07:14</t>
   </si>
   <si>
-    <t>1666856850</t>
-  </si>
-  <si>
-    <t>bili_11243538091</t>
-  </si>
-  <si>
-    <t>前期凯拉的支线都做完了，找不到凯拉了，还有哪里能买到基础版诅咒之油？</t>
-  </si>
-  <si>
     <t>2025-03-13 23:28:51</t>
   </si>
   <si>
-    <t>37448135</t>
-  </si>
-  <si>
-    <t>赛文君123</t>
-  </si>
-  <si>
-    <t>问一下，为什么up可以在炼金直接购买缺少的材料？我这边不行，没有物品右上角内个黄色的标志</t>
-  </si>
-  <si>
     <t>2025-03-13 19:05:17</t>
   </si>
   <si>
-    <t>381412986</t>
-  </si>
-  <si>
-    <t>ace小朋友</t>
-  </si>
-  <si>
-    <t>新手入坑，白果园也过不了[笑哭]</t>
-  </si>
-  <si>
     <t>2025-03-13 15:10:36</t>
   </si>
   <si>
-    <t>催更，催更，嘿嘿，今晚1点，春促开始，这次必须把季票补了，🆙速速通关本体啊，打dlc啦[呲牙][呲牙][呲牙]</t>
-  </si>
-  <si>
     <t>2025-03-13 09:54:52</t>
   </si>
   <si>
-    <t>更新49踢我</t>
-  </si>
-  <si>
     <t>2025-03-13 08:44:44</t>
   </si>
   <si>
-    <t>3461571305015713</t>
-  </si>
-  <si>
-    <t>博文2020</t>
-  </si>
-  <si>
-    <t>up主，一直看你视频玩，挺详细的，有个问题你那个地图怎么会有蓝色叹号，我的没有，是啥mod，名字叫什么？</t>
-  </si>
-  <si>
     <t>2025-03-13 08:12:22</t>
   </si>
   <si>
-    <t>为啥我岩石巨魔刷了十次了，死活不出突变物？</t>
-  </si>
-  <si>
     <t>2025-03-12 00:30:12</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -685,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -693,12 +590,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,513 +908,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257968830497</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>486752975</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>257958219681</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>448096283</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>257956186545</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>40049866</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257890208673</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>298582569</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>258679452976</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>14991900</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>258646556976</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>77568913</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>257832899361</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>650364185</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>258608098608</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>631524948</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>257766545905</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="C10">
+        <v>41049675</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>257735730049</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>383034760</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>258537077920</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>36902532</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>258530886624</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>36902532</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>258484393136</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
+      <c r="C14">
+        <v>353694122</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>257667406465</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
+      <c r="C15">
+        <v>85584494</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>257636228433</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
+      <c r="C16">
+        <v>11397768</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>70</v>
@@ -1508,1447 +1468,1585 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>258422340384</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
+      <c r="C17">
+        <v>12601915</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>257593578689</v>
       </c>
-      <c r="C18" t="s">
-        <v>76</v>
+      <c r="C18">
+        <v>215531898</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>258337897360</v>
       </c>
-      <c r="C19" t="s">
-        <v>80</v>
+      <c r="C19">
+        <v>199929846</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>257528671841</v>
       </c>
-      <c r="C20" t="s">
-        <v>84</v>
+      <c r="C20">
+        <v>1237573780</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>257511410737</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
+      <c r="C21">
+        <v>161821877</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>257472049985</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
+      <c r="C22">
+        <v>486752975</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>257469975137</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
+      <c r="C23">
+        <v>11397768</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>258256396048</v>
       </c>
-      <c r="C24" t="s">
-        <v>96</v>
+      <c r="C24">
+        <v>522390711</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>258232784064</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
+      <c r="C25">
+        <v>77568913</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>257405751281</v>
       </c>
-      <c r="C26" t="s">
-        <v>102</v>
+      <c r="C26">
+        <v>38239663</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>257395664273</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
+      <c r="C27">
+        <v>447414451</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>257394417297</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
+      <c r="C28">
+        <v>486752975</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>258186117104</v>
       </c>
-      <c r="C29" t="s">
-        <v>112</v>
+      <c r="C29">
+        <v>502268123</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>258154804128</v>
       </c>
-      <c r="C30" t="s">
-        <v>116</v>
+      <c r="C30">
+        <v>119771812</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>257356835729</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
+      <c r="C31">
+        <v>15264483</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>258134580352</v>
       </c>
-      <c r="C32" t="s">
-        <v>124</v>
+      <c r="C32">
+        <v>595860904</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>257309835073</v>
       </c>
-      <c r="C33" t="s">
-        <v>128</v>
+      <c r="C33">
+        <v>431292865</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>257309814033</v>
       </c>
-      <c r="C34" t="s">
-        <v>17</v>
+      <c r="C34">
+        <v>448096283</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>257275580017</v>
       </c>
-      <c r="C35" t="s">
-        <v>134</v>
+      <c r="C35">
+        <v>400982389</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>257272511041</v>
       </c>
-      <c r="C36" t="s">
-        <v>102</v>
+      <c r="C36">
+        <v>38239663</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>257266987745</v>
       </c>
-      <c r="C37" t="s">
-        <v>140</v>
+      <c r="C37">
+        <v>1158612897</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>257250292049</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
+      <c r="C38">
+        <v>486752975</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>258034878080</v>
       </c>
-      <c r="C39" t="s">
-        <v>146</v>
+      <c r="C39">
+        <v>628346339</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>258033865168</v>
       </c>
-      <c r="C40" t="s">
-        <v>146</v>
+      <c r="C40">
+        <v>628346339</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>257192836097</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
+      <c r="C41">
+        <v>486752975</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>257978559728</v>
       </c>
-      <c r="C42" t="s">
-        <v>154</v>
+      <c r="C42">
+        <v>3174113</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>156</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>257965390592</v>
       </c>
-      <c r="C43" t="s">
-        <v>158</v>
+      <c r="C43">
+        <v>34473855</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>257171684385</v>
       </c>
-      <c r="C44" t="s">
-        <v>162</v>
+      <c r="C44">
+        <v>1617119687</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>257165389905</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
+      <c r="C45">
+        <v>486752975</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>257936759008</v>
       </c>
-      <c r="C46" t="s">
-        <v>168</v>
+      <c r="C46">
+        <v>35156937</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>257148421393</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
+      <c r="C47">
+        <v>486752975</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>257934114096</v>
       </c>
-      <c r="C48" t="s">
-        <v>174</v>
+      <c r="C48">
+        <v>1653831614</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>257926752128</v>
       </c>
-      <c r="C49" t="s">
-        <v>178</v>
+      <c r="C49">
+        <v>3537120239028232</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>257091984001</v>
       </c>
-      <c r="C50" t="s">
-        <v>182</v>
+      <c r="C50">
+        <v>23740690</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>257058118209</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
+      <c r="C51">
+        <v>486752975</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>257045756545</v>
       </c>
-      <c r="C52" t="s">
-        <v>106</v>
+      <c r="C52">
+        <v>447414451</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>257019418481</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
+      <c r="C53">
+        <v>486752975</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>256915698417</v>
       </c>
-      <c r="C54" t="s">
-        <v>88</v>
+      <c r="C54">
+        <v>161821877</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>256912699297</v>
       </c>
-      <c r="C55" t="s">
-        <v>194</v>
+      <c r="C55">
+        <v>1666856850</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>257671160672</v>
       </c>
-      <c r="C56" t="s">
-        <v>198</v>
+      <c r="C56">
+        <v>37448135</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>256876441457</v>
       </c>
-      <c r="C57" t="s">
-        <v>202</v>
+      <c r="C57">
+        <v>381412986</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>256857137809</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
+      <c r="C58">
+        <v>486752975</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>256853724353</v>
       </c>
-      <c r="C59" t="s">
-        <v>17</v>
+      <c r="C59">
+        <v>448096283</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>257630829520</v>
       </c>
-      <c r="C60" t="s">
-        <v>210</v>
+      <c r="C60">
+        <v>3461571305015713</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>256765682897</v>
       </c>
-      <c r="C61" t="s">
-        <v>194</v>
+      <c r="C61">
+        <v>1666856850</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>215</v>
+        <v>175</v>
+      </c>
+      <c r="K61" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
